--- a/entreprises.xlsx
+++ b/entreprises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qwatrinet\Documents\GitHub\tp-en-pagaille\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qwatrinet\Documents\GitHub\Github Officiel\tps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C30326-A5BB-495F-BC18-D48864222E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4572FA27-EFAA-46B6-9BFC-A0318B1C1E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{A5F4CEBB-D386-4933-88FC-9F7FD0D4982C}"/>
+    <workbookView xWindow="3660" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{A5F4CEBB-D386-4933-88FC-9F7FD0D4982C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>HOROQUARTZ</t>
-  </si>
-  <si>
-    <t>VEGA INFORMATIQUE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>SAVOYE</t>
   </si>
@@ -56,9 +50,6 @@
     <t>ATOL</t>
   </si>
   <si>
-    <t>HELIX DEVELOPPEMENT</t>
-  </si>
-  <si>
     <t>BPCE SOLUTIONS INFORMATIQUES</t>
   </si>
   <si>
@@ -86,13 +77,16 @@
     <t>mouef</t>
   </si>
   <si>
-    <t>probablement C#</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Cv envoyé</t>
+  </si>
+  <si>
+    <t>CV envoyé</t>
+  </si>
+  <si>
+    <t>Euro-information</t>
   </si>
 </sst>
 </file>
@@ -491,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32023A47-B2DE-4CA8-A8EE-2AAA0E23BBD3}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,89 +496,82 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:5" ht="174" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="174" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C12" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
